--- a/Data/Configuración/Config.xlsx
+++ b/Data/Configuración/Config.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\BULMATIC_TimbradoComplementos\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23922FEE-7C8D-488B-92D3-3C632FB1BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789AE72-F53B-45E8-A045-E213AC26FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Fecha" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="297">
   <si>
     <t>Name</t>
   </si>
@@ -232,9 +233,6 @@
   </si>
   <si>
     <t>Dynamic365URL</t>
-  </si>
-  <si>
-    <t>https://crm.bulkmatic.mx/BULKQA/</t>
   </si>
   <si>
     <t>URL de dynamic 365</t>
@@ -1020,6 +1018,24 @@
   </si>
   <si>
     <t>00:00:30.000</t>
+  </si>
+  <si>
+    <t>https://crm.bulkmatic.mx/BLKMX_PROD/</t>
+  </si>
+  <si>
+    <t>Fecha Actual</t>
+  </si>
+  <si>
+    <t>Días Restantes</t>
+  </si>
+  <si>
+    <t>Fecha Resultado</t>
+  </si>
+  <si>
+    <t>DelayStamped</t>
+  </si>
+  <si>
+    <t>00:00:10.000</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1091,6 +1107,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1455,10 +1472,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1469,7 +1486,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1477,13 +1494,13 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1499,57 +1516,57 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>-45</v>
+        <v>-15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>-45</v>
+        <v>-15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1568,296 +1585,296 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
         <v>178</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
         <v>181</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1865,142 +1882,142 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
@@ -2022,18 +2039,18 @@
         <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
@@ -2055,117 +2072,117 @@
         <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
@@ -2187,293 +2204,293 @@
         <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
         <v>185</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" t="s">
         <v>188</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B83" t="s">
-        <v>215</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B84" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
         <v>196</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" t="s">
         <v>213</v>
       </c>
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" t="s">
         <v>225</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
         <v>228</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" t="s">
         <v>231</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
         <v>236</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
@@ -3514,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3698,16 +3715,26 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" t="s">
         <v>256</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -5736,4 +5763,48 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC7CA83-F9CC-46C8-8074-1419A10119BF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7">
+        <f ca="1">NOW()</f>
+        <v>45063.767326851848</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2" s="7">
+        <f ca="1">A2+B2</f>
+        <v>45048.767326851848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Configuración/Config.xlsx
+++ b/Data/Configuración/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\BULMATIC_TimbradoComplementos\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789AE72-F53B-45E8-A045-E213AC26FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A127A9-1FA5-4650-BB0A-906F0CA60173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -1036,6 +1036,39 @@
   </si>
   <si>
     <t>00:00:10.000</t>
+  </si>
+  <si>
+    <t>ObservationValidateMessageThereWereProblems</t>
+  </si>
+  <si>
+    <t>No fue posible validar si existe un mensaje de problemas</t>
+  </si>
+  <si>
+    <t>Observación cuando ocurre novedad durante la validación de mensaje de hubo problemas en Dynamic 365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ObservationSelectModule</t>
+  </si>
+  <si>
+    <t>No fue posible seleccionar el módulo</t>
+  </si>
+  <si>
+    <t>Observación cuando ocurre novedad durante la selección del módulo en Dynamic 365</t>
+  </si>
+  <si>
+    <t>ObservationStamp</t>
+  </si>
+  <si>
+    <t>Sube de nuevo la Queue debido a un mensaje de problemas en Dynamic 365</t>
+  </si>
+  <si>
+    <t>MessageStamp</t>
+  </si>
+  <si>
+    <t>Documento en proceso de timbrado</t>
+  </si>
+  <si>
+    <t>Mensaje cuando el documento se encuentra en proceso de timbrado y no tiembra de inmediato</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1081"/>
+  <dimension ref="A1:Z1085"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1552,7 +1585,7 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>94</v>
@@ -1563,984 +1596,1024 @@
         <v>89</v>
       </c>
       <c r="B10">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:26">
+      <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
         <v>276</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>209</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>211</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>192</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>198</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A67" s="5" t="s">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A68" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>281</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>244</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>243</v>
+        <v>167</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A79" t="s">
         <v>249</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A79" s="5" t="s">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A82" t="s">
         <v>187</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A83" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A95" t="s">
         <v>246</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>57</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A101" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A102" t="s">
         <v>58</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="103" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="104" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="105" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3520,6 +3593,10 @@
     <row r="1079" ht="14.25" customHeight="1"/>
     <row r="1080" ht="14.25" customHeight="1"/>
     <row r="1081" ht="14.25" customHeight="1"/>
+    <row r="1082" ht="14.25" customHeight="1"/>
+    <row r="1083" ht="14.25" customHeight="1"/>
+    <row r="1084" ht="14.25" customHeight="1"/>
+    <row r="1085" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,7 +3608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5794,14 +5871,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="7">
         <f ca="1">NOW()</f>
-        <v>45063.767326851848</v>
+        <v>45071.989742129626</v>
       </c>
       <c r="B2">
         <v>-15</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">A2+B2</f>
-        <v>45048.767326851848</v>
+        <v>45056.989742129626</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Configuración/Config.xlsx
+++ b/Data/Configuración/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\BULMATIC_TimbradoComplementos\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A127A9-1FA5-4650-BB0A-906F0CA60173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BF5D4-9A32-4B44-A171-03C142C57A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>ToMailNotification</t>
-  </si>
-  <si>
-    <t>JorgeLoaiza@chazeypartners.com</t>
   </si>
   <si>
     <t>MAIL SUBJECT</t>
@@ -1020,9 +1017,6 @@
     <t>00:00:30.000</t>
   </si>
   <si>
-    <t>https://crm.bulkmatic.mx/BLKMX_PROD/</t>
-  </si>
-  <si>
     <t>Fecha Actual</t>
   </si>
   <si>
@@ -1069,6 +1063,24 @@
   </si>
   <si>
     <t>Mensaje cuando el documento se encuentra en proceso de timbrado y no tiembra de inmediato</t>
+  </si>
+  <si>
+    <t>JorgeLoaiza@chazeypartners.com;sgarcia@bulkmatic.com.mx;acontreras@bulkmatic.com.mx;mtorres@bulkmatic.com.mx</t>
+  </si>
+  <si>
+    <t>https://crm.bulkmatic.mx/BLKMX_PROD</t>
+  </si>
+  <si>
+    <t>FileDownload</t>
+  </si>
+  <si>
+    <t>C:\Users\jorge\Downloads</t>
+  </si>
+  <si>
+    <t>Carpeta donde se almacenaran los archivos descargados</t>
+  </si>
+  <si>
+    <t>FOLDER</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1085"/>
+  <dimension ref="A1:Z1087"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1505,10 +1517,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1519,7 +1531,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1527,13 +1539,13 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1549,1073 +1561,1093 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
-        <v>-24</v>
+        <v>-8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>-20</v>
+        <v>-3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>95</v>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>171</v>
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>207</v>
+      <c r="C21" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>179</v>
+      <c r="A25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>113</v>
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>182</v>
+      <c r="A29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>118</v>
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>258</v>
+      <c r="A36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A53" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A54" t="s">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>46</v>
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>48</v>
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>306</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>71</v>
+      <c r="A58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>289</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>49</v>
+      <c r="A68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>61</v>
+        <v>250</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>73</v>
+      <c r="A70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>244</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>243</v>
+        <v>158</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>183</v>
+      <c r="A80" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
         <v>184</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C83" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A82" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A85" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>191</v>
+      <c r="A85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>51</v>
+      <c r="A99" t="s">
+        <v>298</v>
+      </c>
+      <c r="B99" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" t="s">
-        <v>56</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>57</v>
+      <c r="A101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A104" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" t="s">
         <v>58</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C104" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1"/>
+    </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="106" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3597,6 +3629,8 @@
     <row r="1083" ht="14.25" customHeight="1"/>
     <row r="1084" ht="14.25" customHeight="1"/>
     <row r="1085" ht="14.25" customHeight="1"/>
+    <row r="1086" ht="14.25" customHeight="1"/>
+    <row r="1087" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3792,24 +3826,24 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
         <v>255</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -5859,26 +5893,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
         <v>292</v>
-      </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7">
         <f ca="1">NOW()</f>
-        <v>45071.989742129626</v>
+        <v>45086.640705902777</v>
       </c>
       <c r="B2">
         <v>-15</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">A2+B2</f>
-        <v>45056.989742129626</v>
+        <v>45071.640705902777</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Configuración/Config.xlsx
+++ b/Data/Configuración/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\BULMATIC_TimbradoComplementos\Configuración\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.BULKMATIC\Documents\UiPath\BULMATIC_TimbradoComplementos\BULMATIC_TimbradoComplementos\Data\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BF5D4-9A32-4B44-A171-03C142C57A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21410E4F-E441-4125-95B4-80DA100F28A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Fecha" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="0" iterateDelta="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="318">
   <si>
     <t>Name</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Nombre del Asset de credenciales de Dynamic 365</t>
-  </si>
-  <si>
-    <t>JorgeLoaiza</t>
   </si>
   <si>
     <t>SubjectLoginDynamic365</t>
@@ -1065,22 +1062,43 @@
     <t>Mensaje cuando el documento se encuentra en proceso de timbrado y no tiembra de inmediato</t>
   </si>
   <si>
-    <t>JorgeLoaiza@chazeypartners.com;sgarcia@bulkmatic.com.mx;acontreras@bulkmatic.com.mx;mtorres@bulkmatic.com.mx</t>
-  </si>
-  <si>
     <t>https://crm.bulkmatic.mx/BLKMX_PROD</t>
   </si>
   <si>
     <t>FileDownload</t>
   </si>
   <si>
-    <t>C:\Users\jorge\Downloads</t>
-  </si>
-  <si>
     <t>Carpeta donde se almacenaran los archivos descargados</t>
   </si>
   <si>
     <t>FOLDER</t>
+  </si>
+  <si>
+    <t>JorgeLoaiza@chazeypartners.com;zaidambra@chazeypartners.com;sgarcia@bulkmatic.com.mx;acontreras@bulkmatic.com.mx;mtorres@bulkmatic.com.mx</t>
+  </si>
+  <si>
+    <t>JorgeLoaiza@chazeypartners.com;zaidambra@chazeypartners.com;sgarcia@bulkmatic.com.mx;acontreras@bulkmatic.com.mx;mtorres@bulkmatic.com.mx;soporte@bulkmatic.com.mx</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrador.BULKMATIC\Downloads</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>DateFormatFile</t>
+  </si>
+  <si>
+    <t>MM/dd/yyyy</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en el archivo descargado de Dynamic 365</t>
+  </si>
+  <si>
+    <t>NumberRetriesSelectCompany</t>
+  </si>
+  <si>
+    <t>Número maximo de reintentos para seleccionar la compañía</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1467,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1087"/>
+  <dimension ref="A1:Z1089"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
@@ -1517,10 +1535,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1531,7 +1549,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>312</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1561,1095 +1579,1115 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
+        <v>154</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9">
-        <v>-8</v>
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="B10">
-        <v>-3</v>
+        <v>300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" t="s">
-        <v>304</v>
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>305</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>311</v>
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>94</v>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>170</v>
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>206</v>
+      <c r="C23" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>178</v>
+      <c r="A27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>112</v>
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>181</v>
+      <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>117</v>
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
         <v>118</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>257</v>
+      <c r="A38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A55" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
         <v>44</v>
       </c>
-      <c r="B56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" t="s">
-        <v>306</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>45</v>
+      <c r="B58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>47</v>
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>310</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>70</v>
+      <c r="A60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>282</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>48</v>
+      <c r="A70" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>60</v>
+        <v>249</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>72</v>
+      <c r="A72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>243</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>242</v>
+        <v>157</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>182</v>
+      <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
         <v>183</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C85" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A87" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>190</v>
+      <c r="A87" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>50</v>
+      <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A103" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>56</v>
+      <c r="A103" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A106" t="s">
         <v>57</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3631,6 +3669,8 @@
     <row r="1085" ht="14.25" customHeight="1"/>
     <row r="1086" ht="14.25" customHeight="1"/>
     <row r="1087" ht="14.25" customHeight="1"/>
+    <row r="1088" ht="14.25" customHeight="1"/>
+    <row r="1089" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3646,7 +3686,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -3826,24 +3866,24 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" t="s">
         <v>254</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4827,7 +4867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -5884,7 +5924,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -5893,26 +5933,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7">
         <f ca="1">NOW()</f>
-        <v>45086.640705902777</v>
+        <v>45111.455461921294</v>
       </c>
       <c r="B2">
         <v>-15</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">A2+B2</f>
-        <v>45071.640705902777</v>
+        <v>45096.455461921294</v>
       </c>
     </row>
   </sheetData>
